--- a/문제 리스트.xlsx
+++ b/문제 리스트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
   <si>
     <t>풀이 여부</t>
   </si>
@@ -308,6 +308,58 @@
   </si>
   <si>
     <t>IM_2578</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM_2477</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM_2527</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM_10158</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM_10157</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resignation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomato</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -769,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -906,7 +958,7 @@
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B9" s="4">
         <v>2578</v>
@@ -921,7 +973,7 @@
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B10" s="4">
         <v>2477</v>
@@ -930,10 +982,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="6"/>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="B11" s="4">
         <v>2527</v>
@@ -942,10 +997,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="6"/>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4">
         <v>10157</v>
@@ -954,10 +1012,13 @@
         <v>15</v>
       </c>
       <c r="D12" s="6"/>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B13" s="4">
         <v>10158</v>
@@ -966,6 +1027,9 @@
         <v>16</v>
       </c>
       <c r="D13" s="7"/>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1209,7 +1273,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +1287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +1315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -1265,7 +1329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1341,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1353,7 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1365,7 @@
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -1313,7 +1377,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1389,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1339,9 +1403,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B43" s="4">
         <v>14889</v>
@@ -1351,9 +1415,9 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B44" s="4">
         <v>14501</v>
@@ -1362,8 +1426,11 @@
         <v>56</v>
       </c>
       <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1375,7 +1442,7 @@
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -1387,9 +1454,9 @@
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B47" s="4">
         <v>17135</v>
@@ -1399,7 +1466,7 @@
       </c>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1411,7 +1478,7 @@
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1423,7 +1490,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -1435,9 +1502,9 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B51" s="4">
         <v>7569</v>
@@ -1446,8 +1513,11 @@
         <v>63</v>
       </c>
       <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1459,9 +1529,9 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B53" s="4">
         <v>17070</v>
@@ -1471,9 +1541,9 @@
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B54" s="4">
         <v>16234</v>
@@ -1483,9 +1553,9 @@
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B55" s="4">
         <v>14888</v>
@@ -1495,7 +1565,7 @@
       </c>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -1507,9 +1577,9 @@
       </c>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B57" s="4">
         <v>17471</v>

--- a/문제 리스트.xlsx
+++ b/문제 리스트.xlsx
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/문제 리스트.xlsx
+++ b/문제 리스트.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\PycharmProjects\JSH\TIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\전재인\Desktop\TIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5E6D8D-4587-4E85-912B-9085DB6DFDA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
   <si>
     <t>풀이 여부</t>
   </si>
@@ -362,11 +363,46 @@
     <t>O</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>To_a_complex_number</t>
+  </si>
+  <si>
+    <t>start_and_link</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>castle_defense</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gerrymandering</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_operator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경비원</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일곱난쟁이</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -818,23 +854,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" customWidth="1"/>
+    <col min="5" max="5" width="19.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +887,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
@@ -866,7 +902,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
@@ -881,7 +917,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>73</v>
       </c>
@@ -896,7 +932,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>73</v>
       </c>
@@ -911,7 +947,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
@@ -926,7 +962,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
@@ -941,7 +977,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>74</v>
       </c>
@@ -956,7 +992,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
@@ -970,8 +1006,11 @@
       <c r="E9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
@@ -985,8 +1024,11 @@
       <c r="E10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -1000,8 +1042,11 @@
       <c r="E11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>81</v>
       </c>
@@ -1016,7 +1061,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
@@ -1031,9 +1076,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B14" s="4">
         <v>2667</v>
@@ -1044,8 +1089,11 @@
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +1107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1071,7 +1119,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1131,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1095,7 +1143,7 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1123,7 +1171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +1197,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1161,7 +1209,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1235,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1201,7 +1249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1261,7 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -1225,7 +1273,7 @@
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1285,7 @@
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +1297,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1309,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1273,7 +1321,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1287,7 +1335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -1329,7 +1377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1341,7 +1389,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -1353,7 +1401,7 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1413,7 @@
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -1377,7 +1425,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1389,7 +1437,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +1451,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
@@ -1414,8 +1462,11 @@
         <v>55</v>
       </c>
       <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
@@ -1430,7 +1481,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1442,7 +1493,7 @@
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -1454,7 +1505,7 @@
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>86</v>
       </c>
@@ -1465,8 +1516,11 @@
         <v>59</v>
       </c>
       <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1478,7 +1532,7 @@
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1490,7 +1544,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1556,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>93</v>
       </c>
@@ -1517,7 +1571,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1529,7 +1583,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>86</v>
       </c>
@@ -1541,7 +1595,7 @@
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>89</v>
       </c>
@@ -1553,7 +1607,7 @@
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>90</v>
       </c>
@@ -1564,8 +1618,11 @@
         <v>67</v>
       </c>
       <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -1577,7 +1634,7 @@
       </c>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>86</v>
       </c>
@@ -1588,6 +1645,9 @@
         <v>69</v>
       </c>
       <c r="D57" s="8"/>
+      <c r="E57" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/문제 리스트.xlsx
+++ b/문제 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\전재인\Desktop\TIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5E6D8D-4587-4E85-912B-9085DB6DFDA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3865D4BF-5095-436F-9195-BB5CAF7BDF89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>풀이 여부</t>
   </si>
@@ -387,15 +387,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>경비원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>일곱난쟁이</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>딱지</t>
+    <t>BOJ_2660</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -855,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -870,7 +866,7 @@
     <col min="5" max="5" width="19.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +883,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
@@ -902,7 +898,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
@@ -917,7 +913,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>73</v>
       </c>
@@ -932,7 +928,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>73</v>
       </c>
@@ -947,7 +943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
@@ -962,7 +958,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
@@ -977,7 +973,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>74</v>
       </c>
@@ -992,7 +988,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
@@ -1006,11 +1002,8 @@
       <c r="E9" t="s">
         <v>80</v>
       </c>
-      <c r="G9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
@@ -1024,11 +1017,8 @@
       <c r="E10" t="s">
         <v>82</v>
       </c>
-      <c r="G10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -1042,11 +1032,8 @@
       <c r="E11" t="s">
         <v>83</v>
       </c>
-      <c r="G11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>81</v>
       </c>
@@ -1061,7 +1048,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
@@ -1076,7 +1063,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>94</v>
       </c>
@@ -1093,9 +1080,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B15" s="4">
         <v>2660</v>
@@ -1106,8 +1093,11 @@
       <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>

--- a/문제 리스트.xlsx
+++ b/문제 리스트.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\전재인\Desktop\TIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\PycharmProjects\JSH\TIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3865D4BF-5095-436F-9195-BB5CAF7BDF89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
   <si>
     <t>풀이 여부</t>
   </si>
@@ -394,11 +393,19 @@
     <t>O</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOJ_2651</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -850,23 +857,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" customWidth="1"/>
-    <col min="5" max="5" width="19.09765625" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +890,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
@@ -898,7 +905,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
@@ -913,7 +920,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>73</v>
       </c>
@@ -928,7 +935,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>73</v>
       </c>
@@ -943,7 +950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
@@ -958,7 +965,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
@@ -973,7 +980,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>74</v>
       </c>
@@ -988,7 +995,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
@@ -1003,7 +1010,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
@@ -1018,7 +1025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -1033,7 +1040,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>81</v>
       </c>
@@ -1048,7 +1055,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
@@ -1063,7 +1070,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>94</v>
       </c>
@@ -1080,7 +1087,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>101</v>
       </c>
@@ -1097,9 +1104,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B16" s="4">
         <v>2651</v>
@@ -1108,8 +1115,11 @@
         <v>21</v>
       </c>
       <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1121,7 +1131,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1143,7 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1147,7 +1157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1161,7 +1171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1197,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1199,7 +1209,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1225,7 +1235,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1239,7 +1249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +1261,7 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -1263,7 +1273,7 @@
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1275,7 +1285,7 @@
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -1287,7 +1297,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -1299,7 +1309,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1321,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -1353,7 +1363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -1367,7 +1377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1389,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -1391,7 +1401,7 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +1413,7 @@
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -1415,7 +1425,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1437,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1441,7 +1451,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
@@ -1456,7 +1466,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
@@ -1471,7 +1481,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +1493,7 @@
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -1495,7 +1505,7 @@
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>86</v>
       </c>
@@ -1510,7 +1520,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1522,7 +1532,7 @@
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +1544,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -1546,7 +1556,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>93</v>
       </c>
@@ -1561,7 +1571,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +1583,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>86</v>
       </c>
@@ -1585,7 +1595,7 @@
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>89</v>
       </c>
@@ -1597,7 +1607,7 @@
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>90</v>
       </c>
@@ -1612,7 +1622,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -1624,7 +1634,7 @@
       </c>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>86</v>
       </c>

--- a/문제 리스트.xlsx
+++ b/문제 리스트.xlsx
@@ -861,7 +861,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
